--- a/biology/Médecine/Droit_à_l'intégrité_physique_en_France/Droit_à_l'intégrité_physique_en_France.xlsx
+++ b/biology/Médecine/Droit_à_l'intégrité_physique_en_France/Droit_à_l'intégrité_physique_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Droit_%C3%A0_l%27int%C3%A9grit%C3%A9_physique_en_France</t>
+          <t>Droit_à_l'intégrité_physique_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le droit à l'intégrité physique est, en droit français, un droit en vertu duquel chacun a droit au respect de son corps. 
 Le droit à la liberté commence par le respect de l'intégrité physique, de la dignité et de l'autonomie de la personne humaine. Il a valeur constitutionnelle, d'ordre public. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Droit_%C3%A0_l%27int%C3%A9grit%C3%A9_physique_en_France</t>
+          <t>Droit_à_l'intégrité_physique_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Sources juridiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le droit à l'intégrité physique s'exprime de façon différente, selon que la personne est vivante ou décédée. Il a fait l'objet de la loi no 94-653 du 29 juillet 1994, qui a créé les articles 16 et suivants du Code civil (chapitre II : Du respect du corps humain)[1]. On notera, en particulier, l'article 16-3 qui dispose :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le droit à l'intégrité physique s'exprime de façon différente, selon que la personne est vivante ou décédée. Il a fait l'objet de la loi no 94-653 du 29 juillet 1994, qui a créé les articles 16 et suivants du Code civil (chapitre II : Du respect du corps humain). On notera, en particulier, l'article 16-3 qui dispose :
 « Il ne peut être porté atteinte à l'intégrité du corps humain qu'en cas de nécessité médicale pour la personne ou à titre exceptionnel dans l'intérêt thérapeutique d'autrui.
 Le consentement de l'intéressé doit être recueilli préalablement hors le cas où son état rend nécessaire une intervention thérapeutique à laquelle il n'est pas à même de consentir »
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Droit_%C3%A0_l%27int%C3%A9grit%C3%A9_physique_en_France</t>
+          <t>Droit_à_l'intégrité_physique_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,18 +559,15 @@
           <t>Droit au respect de son intégrité physique de son vivant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un principe dont la rigueur est atténuée par des lois thérapeutiques et bioéthiques qui font exception à la règle selon laquelle le corps humain ne peut faire l'objet d'une convention à titre gratuit ou onéreux, par exemple l'expérimentation sur l'homme. C'est le cas également pour les exceptions à la loi qui dispose que le corps humain est inviolable, notion à rapprocher du concept d'intégrité du corps humain.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est un principe dont la rigueur est atténuée par des lois thérapeutiques et bioéthiques qui font exception à la règle selon laquelle le corps humain ne peut faire l'objet d'une convention à titre gratuit ou onéreux, par exemple l'expérimentation sur l'homme. C'est le cas également pour les exceptions à la loi qui dispose que le corps humain est inviolable, notion à rapprocher du concept d'intégrité du corps humain.
 La jurisprudence des hautes cours européennes tolère les atteintes limitées au principe de l'intégrité physique commises dans un but de prévention prophylactique (vaccins) à condition qu'elles soient :
 effectuées pour la protection de la vie,
 proportionnées à leur but (CEDH, 9.10.77 ; C. É., 26.11.1),
-soumises à enquête officielle.
-Cas des personnes intersexes
-Dans le cas des personnes intersexes (nées avec des caractéristiques sexuelles qui ne correspondent pas  aux normes du féminins ou du masculin), l'assignation sexuelle faite à la naissance peut s'avérer ultérieurement en désaccord avec l'identité de genre de l'enfant[2]. 
-Selon un point de vue non-pathologisant défendu par les associations de personnes intersexes[3], et comme cela a été rappelé en France par le Défenseur des droits[4], renforcer cette assignation par une intervention médicale imposée, non indispensable, dont le but est de « normaliser » le corps (ablation des gonades, réduction clitoridienne, fabrication de néovagin, etc.), viole l'intégrité physique de l'individu[3],[5],[6],[7]. Ces interventions peuvent être qualifiées de violences mutilantes par personne ayant autorité (article 222-9 du Code pénal[8]) s’agissant des gonadectomies et clitoridectomies, ou de viols (article 222-23 du Code pénal[9]) pour ce qui est des dilatations vaginales encore pratiquées dans les établissements de santé français[3]. 
-Les comités d’éthique suisse et allemand se sont prononcés contre des mesures irréversibles d’assignation sexuelle[4].
-</t>
+soumises à enquête officielle.</t>
         </is>
       </c>
     </row>
@@ -566,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Droit_%C3%A0_l%27int%C3%A9grit%C3%A9_physique_en_France</t>
+          <t>Droit_à_l'intégrité_physique_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +592,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Droit au respect de son intégrité physique de son vivant</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cas des personnes intersexes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas des personnes intersexes (nées avec des caractéristiques sexuelles qui ne correspondent pas  aux normes du féminins ou du masculin), l'assignation sexuelle faite à la naissance peut s'avérer ultérieurement en désaccord avec l'identité de genre de l'enfant. 
+Selon un point de vue non-pathologisant défendu par les associations de personnes intersexes, et comme cela a été rappelé en France par le Défenseur des droits, renforcer cette assignation par une intervention médicale imposée, non indispensable, dont le but est de « normaliser » le corps (ablation des gonades, réduction clitoridienne, fabrication de néovagin, etc.), viole l'intégrité physique de l'individu. Ces interventions peuvent être qualifiées de violences mutilantes par personne ayant autorité (article 222-9 du Code pénal) s’agissant des gonadectomies et clitoridectomies, ou de viols (article 222-23 du Code pénal) pour ce qui est des dilatations vaginales encore pratiquées dans les établissements de santé français. 
+Les comités d’éthique suisse et allemand se sont prononcés contre des mesures irréversibles d’assignation sexuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Droit_à_l'intégrité_physique_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Droit_%C3%A0_l%27int%C3%A9grit%C3%A9_physique_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Droit au respect de l'intégrité physique du cadavre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La personne décédée n'est plus une personne au sens juridique du terme, mais son corps bénéficie d'une protection juridique au nom de la dignité humaine (article 16-1-1 du Code civil). C'est la raison pour laquelle toutes les expérimentations pratiquées après la mort sur des cadavres humains sont interdites et sanctionnées si la personne n'y a pas consenti de son vivant.
 </t>
